--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tgfb3-Tgfbr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tgfb3-Tgfbr1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.999238666666667</v>
+        <v>2.434920666666667</v>
       </c>
       <c r="H2">
-        <v>8.997716</v>
+        <v>7.304762</v>
       </c>
       <c r="I2">
-        <v>0.02939707704242819</v>
+        <v>0.02342808924551234</v>
       </c>
       <c r="J2">
-        <v>0.02939707704242818</v>
+        <v>0.02342808924551234</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.07474266666667</v>
+        <v>14.13421233333333</v>
       </c>
       <c r="N2">
-        <v>36.224228</v>
+        <v>42.402637</v>
       </c>
       <c r="O2">
-        <v>0.08154942646895191</v>
+        <v>0.06429893302526193</v>
       </c>
       <c r="P2">
-        <v>0.08154942646895191</v>
+        <v>0.06429893302526192</v>
       </c>
       <c r="Q2">
-        <v>36.21503509591644</v>
+        <v>34.41568571748822</v>
       </c>
       <c r="R2">
-        <v>325.935315863248</v>
+        <v>309.741171457394</v>
       </c>
       <c r="S2">
-        <v>0.002397314772673612</v>
+        <v>0.001506401141307058</v>
       </c>
       <c r="T2">
-        <v>0.002397314772673612</v>
+        <v>0.001506401141307057</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.999238666666667</v>
+        <v>2.434920666666667</v>
       </c>
       <c r="H3">
-        <v>8.997716</v>
+        <v>7.304762</v>
       </c>
       <c r="I3">
-        <v>0.02939707704242819</v>
+        <v>0.02342808924551234</v>
       </c>
       <c r="J3">
-        <v>0.02939707704242818</v>
+        <v>0.02342808924551234</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,25 +623,25 @@
         <v>16.614382</v>
       </c>
       <c r="N3">
-        <v>49.843146</v>
+        <v>49.84314599999999</v>
       </c>
       <c r="O3">
-        <v>0.1122088777077109</v>
+        <v>0.07558164617031606</v>
       </c>
       <c r="P3">
-        <v>0.1122088777077108</v>
+        <v>0.07558164617031604</v>
       </c>
       <c r="Q3">
-        <v>49.83049691717068</v>
+        <v>40.45470209569466</v>
       </c>
       <c r="R3">
-        <v>448.4744722545361</v>
+        <v>364.092318861252</v>
       </c>
       <c r="S3">
-        <v>0.003298613022817979</v>
+        <v>0.001770733551800901</v>
       </c>
       <c r="T3">
-        <v>0.003298613022817978</v>
+        <v>0.0017707335518009</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.999238666666667</v>
+        <v>2.434920666666667</v>
       </c>
       <c r="H4">
-        <v>8.997716</v>
+        <v>7.304762</v>
       </c>
       <c r="I4">
-        <v>0.02939707704242819</v>
+        <v>0.02342808924551234</v>
       </c>
       <c r="J4">
-        <v>0.02939707704242818</v>
+        <v>0.02342808924551234</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>43.86740866666667</v>
+        <v>87.857732</v>
       </c>
       <c r="N4">
-        <v>131.602226</v>
+        <v>263.573196</v>
       </c>
       <c r="O4">
-        <v>0.2962681786437903</v>
+        <v>0.3996797481453391</v>
       </c>
       <c r="P4">
-        <v>0.2962681786437903</v>
+        <v>0.399679748145339</v>
       </c>
       <c r="Q4">
-        <v>131.5688282795351</v>
+        <v>213.9266073732613</v>
       </c>
       <c r="R4">
-        <v>1184.119454515816</v>
+        <v>1925.339466359352</v>
       </c>
       <c r="S4">
-        <v>0.008709418472811384</v>
+        <v>0.009363732809172902</v>
       </c>
       <c r="T4">
-        <v>0.00870941847281138</v>
+        <v>0.009363732809172898</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.999238666666667</v>
+        <v>2.434920666666667</v>
       </c>
       <c r="H5">
-        <v>8.997716</v>
+        <v>7.304762</v>
       </c>
       <c r="I5">
-        <v>0.02939707704242819</v>
+        <v>0.02342808924551234</v>
       </c>
       <c r="J5">
-        <v>0.02939707704242818</v>
+        <v>0.02342808924551234</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.932863999999999</v>
+        <v>5.425038666666667</v>
       </c>
       <c r="N5">
-        <v>17.798592</v>
+        <v>16.275116</v>
       </c>
       <c r="O5">
-        <v>0.04006890000678209</v>
+        <v>0.02467942250059516</v>
       </c>
       <c r="P5">
-        <v>0.04006890000678209</v>
+        <v>0.02467942250059516</v>
       </c>
       <c r="Q5">
-        <v>17.79407511287467</v>
+        <v>13.20953876693244</v>
       </c>
       <c r="R5">
-        <v>160.146676015872</v>
+        <v>118.885848902392</v>
       </c>
       <c r="S5">
-        <v>0.001177908540504725</v>
+        <v>0.0005781917128716488</v>
       </c>
       <c r="T5">
-        <v>0.001177908540504724</v>
+        <v>0.0005781917128716488</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.999238666666667</v>
+        <v>2.434920666666667</v>
       </c>
       <c r="H6">
-        <v>8.997716</v>
+        <v>7.304762</v>
       </c>
       <c r="I6">
-        <v>0.02939707704242819</v>
+        <v>0.02342808924551234</v>
       </c>
       <c r="J6">
-        <v>0.02939707704242818</v>
+        <v>0.02342808924551234</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>69.577158</v>
+        <v>95.78895966666666</v>
       </c>
       <c r="N6">
-        <v>208.731474</v>
+        <v>287.366879</v>
       </c>
       <c r="O6">
-        <v>0.4699046171727648</v>
+        <v>0.4357602501584878</v>
       </c>
       <c r="P6">
-        <v>0.4699046171727648</v>
+        <v>0.4357602501584877</v>
       </c>
       <c r="Q6">
-        <v>208.678502590376</v>
+        <v>233.2385175308664</v>
       </c>
       <c r="R6">
-        <v>1878.106523313384</v>
+        <v>2099.146657777798</v>
       </c>
       <c r="S6">
-        <v>0.01381382223362049</v>
+        <v>0.01020903003035984</v>
       </c>
       <c r="T6">
-        <v>0.01381382223362049</v>
+        <v>0.01020903003035983</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>284.701828</v>
       </c>
       <c r="I7">
-        <v>0.9301695643467897</v>
+        <v>0.9131057021083648</v>
       </c>
       <c r="J7">
-        <v>0.9301695643467893</v>
+        <v>0.9131057021083648</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.07474266666667</v>
+        <v>14.13421233333333</v>
       </c>
       <c r="N7">
-        <v>36.224228</v>
+        <v>42.402637</v>
       </c>
       <c r="O7">
-        <v>0.08154942646895191</v>
+        <v>0.06429893302526193</v>
       </c>
       <c r="P7">
-        <v>0.08154942646895191</v>
+        <v>0.06429893302526192</v>
       </c>
       <c r="Q7">
-        <v>1145.900436609865</v>
+        <v>1341.345362880048</v>
       </c>
       <c r="R7">
-        <v>10313.10392948878</v>
+        <v>12072.10826592043</v>
       </c>
       <c r="S7">
-        <v>0.07585479449135556</v>
+        <v>0.05871172238485053</v>
       </c>
       <c r="T7">
-        <v>0.07585479449135553</v>
+        <v>0.05871172238485051</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>284.701828</v>
       </c>
       <c r="I8">
-        <v>0.9301695643467897</v>
+        <v>0.9131057021083648</v>
       </c>
       <c r="J8">
-        <v>0.9301695643467893</v>
+        <v>0.9131057021083648</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,25 +933,25 @@
         <v>16.614382</v>
       </c>
       <c r="N8">
-        <v>49.843146</v>
+        <v>49.84314599999999</v>
       </c>
       <c r="O8">
-        <v>0.1122088777077109</v>
+        <v>0.07558164617031606</v>
       </c>
       <c r="P8">
-        <v>0.1122088777077108</v>
+        <v>0.07558164617031604</v>
       </c>
       <c r="Q8">
         <v>1576.714975496765</v>
       </c>
       <c r="R8">
-        <v>14190.43477947089</v>
+        <v>14190.43477947088</v>
       </c>
       <c r="S8">
-        <v>0.1043732828932236</v>
+        <v>0.06901403209285245</v>
       </c>
       <c r="T8">
-        <v>0.1043732828932236</v>
+        <v>0.06901403209285244</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>284.701828</v>
       </c>
       <c r="I9">
-        <v>0.9301695643467897</v>
+        <v>0.9131057021083648</v>
       </c>
       <c r="J9">
-        <v>0.9301695643467893</v>
+        <v>0.9131057021083648</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>43.86740866666667</v>
+        <v>87.857732</v>
       </c>
       <c r="N9">
-        <v>131.602226</v>
+        <v>263.573196</v>
       </c>
       <c r="O9">
-        <v>0.2962681786437903</v>
+        <v>0.3996797481453391</v>
       </c>
       <c r="P9">
-        <v>0.2962681786437903</v>
+        <v>0.399679748145339</v>
       </c>
       <c r="Q9">
-        <v>4163.043812341014</v>
+        <v>8337.752301444698</v>
       </c>
       <c r="R9">
-        <v>37467.39431106913</v>
+        <v>75039.77071300228</v>
       </c>
       <c r="S9">
-        <v>0.2755796426589113</v>
+        <v>0.3649498570487443</v>
       </c>
       <c r="T9">
-        <v>0.2755796426589112</v>
+        <v>0.3649498570487442</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>284.701828</v>
       </c>
       <c r="I10">
-        <v>0.9301695643467897</v>
+        <v>0.9131057021083648</v>
       </c>
       <c r="J10">
-        <v>0.9301695643467893</v>
+        <v>0.9131057021083648</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.932863999999999</v>
+        <v>5.425038666666667</v>
       </c>
       <c r="N10">
-        <v>17.798592</v>
+        <v>16.275116</v>
       </c>
       <c r="O10">
-        <v>0.04006890000678209</v>
+        <v>0.02467942250059516</v>
       </c>
       <c r="P10">
-        <v>0.04006890000678209</v>
+        <v>0.02467942250059516</v>
       </c>
       <c r="Q10">
-        <v>563.0324086917972</v>
+        <v>514.8394751235608</v>
       </c>
       <c r="R10">
-        <v>5067.291678226175</v>
+        <v>4633.555276112048</v>
       </c>
       <c r="S10">
-        <v>0.03727087126316357</v>
+        <v>0.02253492141003492</v>
       </c>
       <c r="T10">
-        <v>0.03727087126316356</v>
+        <v>0.02253492141003492</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>284.701828</v>
       </c>
       <c r="I11">
-        <v>0.9301695643467897</v>
+        <v>0.9131057021083648</v>
       </c>
       <c r="J11">
-        <v>0.9301695643467893</v>
+        <v>0.9131057021083648</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>69.577158</v>
+        <v>95.78895966666666</v>
       </c>
       <c r="N11">
-        <v>208.731474</v>
+        <v>287.366879</v>
       </c>
       <c r="O11">
-        <v>0.4699046171727648</v>
+        <v>0.4357602501584878</v>
       </c>
       <c r="P11">
-        <v>0.4699046171727648</v>
+        <v>0.4357602501584877</v>
       </c>
       <c r="Q11">
-        <v>6602.914689881607</v>
+        <v>9090.430639772754</v>
       </c>
       <c r="R11">
-        <v>59426.23220893447</v>
+        <v>81813.8757579548</v>
       </c>
       <c r="S11">
-        <v>0.4370909730401356</v>
+        <v>0.3978951691718827</v>
       </c>
       <c r="T11">
-        <v>0.4370909730401355</v>
+        <v>0.3978951691718826</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.234972</v>
+        <v>0.8952243333333333</v>
       </c>
       <c r="H12">
-        <v>0.704916</v>
+        <v>2.685673</v>
       </c>
       <c r="I12">
-        <v>0.002303081133083142</v>
+        <v>0.008613584772270864</v>
       </c>
       <c r="J12">
-        <v>0.002303081133083141</v>
+        <v>0.008613584772270864</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>12.07474266666667</v>
+        <v>14.13421233333333</v>
       </c>
       <c r="N12">
-        <v>36.224228</v>
+        <v>42.402637</v>
       </c>
       <c r="O12">
-        <v>0.08154942646895191</v>
+        <v>0.06429893302526193</v>
       </c>
       <c r="P12">
-        <v>0.08154942646895191</v>
+        <v>0.06429893302526192</v>
       </c>
       <c r="Q12">
-        <v>2.837226433871999</v>
+        <v>12.65329081330011</v>
       </c>
       <c r="R12">
-        <v>25.535037904848</v>
+        <v>113.879617319701</v>
       </c>
       <c r="S12">
-        <v>0.0001878149455143941</v>
+        <v>0.0005538443103796604</v>
       </c>
       <c r="T12">
-        <v>0.000187814945514394</v>
+        <v>0.0005538443103796603</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.234972</v>
+        <v>0.8952243333333333</v>
       </c>
       <c r="H13">
-        <v>0.704916</v>
+        <v>2.685673</v>
       </c>
       <c r="I13">
-        <v>0.002303081133083142</v>
+        <v>0.008613584772270864</v>
       </c>
       <c r="J13">
-        <v>0.002303081133083141</v>
+        <v>0.008613584772270864</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,25 +1243,25 @@
         <v>16.614382</v>
       </c>
       <c r="N13">
-        <v>49.843146</v>
+        <v>49.84314599999999</v>
       </c>
       <c r="O13">
-        <v>0.1122088777077109</v>
+        <v>0.07558164617031606</v>
       </c>
       <c r="P13">
-        <v>0.1122088777077108</v>
+        <v>0.07558164617031604</v>
       </c>
       <c r="Q13">
-        <v>3.903914567304001</v>
+        <v>14.87359904969533</v>
       </c>
       <c r="R13">
-        <v>35.135231105736</v>
+        <v>133.862391447258</v>
       </c>
       <c r="S13">
-        <v>0.0002584261492130624</v>
+        <v>0.0006510289165157988</v>
       </c>
       <c r="T13">
-        <v>0.0002584261492130623</v>
+        <v>0.0006510289165157987</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.234972</v>
+        <v>0.8952243333333333</v>
       </c>
       <c r="H14">
-        <v>0.704916</v>
+        <v>2.685673</v>
       </c>
       <c r="I14">
-        <v>0.002303081133083142</v>
+        <v>0.008613584772270864</v>
       </c>
       <c r="J14">
-        <v>0.002303081133083141</v>
+        <v>0.008613584772270864</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>43.86740866666667</v>
+        <v>87.857732</v>
       </c>
       <c r="N14">
-        <v>131.602226</v>
+        <v>263.573196</v>
       </c>
       <c r="O14">
-        <v>0.2962681786437903</v>
+        <v>0.3996797481453391</v>
       </c>
       <c r="P14">
-        <v>0.2962681786437903</v>
+        <v>0.399679748145339</v>
       </c>
       <c r="Q14">
-        <v>10.307612749224</v>
+        <v>78.65237955787866</v>
       </c>
       <c r="R14">
-        <v>92.768514743016</v>
+        <v>707.871416020908</v>
       </c>
       <c r="S14">
-        <v>0.0006823296525674192</v>
+        <v>0.003442675392409747</v>
       </c>
       <c r="T14">
-        <v>0.000682329652567419</v>
+        <v>0.003442675392409746</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.234972</v>
+        <v>0.8952243333333333</v>
       </c>
       <c r="H15">
-        <v>0.704916</v>
+        <v>2.685673</v>
       </c>
       <c r="I15">
-        <v>0.002303081133083142</v>
+        <v>0.008613584772270864</v>
       </c>
       <c r="J15">
-        <v>0.002303081133083141</v>
+        <v>0.008613584772270864</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.932863999999999</v>
+        <v>5.425038666666667</v>
       </c>
       <c r="N15">
-        <v>17.798592</v>
+        <v>16.275116</v>
       </c>
       <c r="O15">
-        <v>0.04006890000678209</v>
+        <v>0.02467942250059516</v>
       </c>
       <c r="P15">
-        <v>0.04006890000678209</v>
+        <v>0.02467942250059516</v>
       </c>
       <c r="Q15">
-        <v>1.394056919808</v>
+        <v>4.856626623674222</v>
       </c>
       <c r="R15">
-        <v>12.546512278272</v>
+        <v>43.709639613068</v>
       </c>
       <c r="S15">
-        <v>9.228192762901479E-05</v>
+        <v>0.0002125782978395654</v>
       </c>
       <c r="T15">
-        <v>9.228192762901475E-05</v>
+        <v>0.0002125782978395654</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.234972</v>
+        <v>0.8952243333333333</v>
       </c>
       <c r="H16">
-        <v>0.704916</v>
+        <v>2.685673</v>
       </c>
       <c r="I16">
-        <v>0.002303081133083142</v>
+        <v>0.008613584772270864</v>
       </c>
       <c r="J16">
-        <v>0.002303081133083141</v>
+        <v>0.008613584772270864</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>69.577158</v>
+        <v>95.78895966666666</v>
       </c>
       <c r="N16">
-        <v>208.731474</v>
+        <v>287.366879</v>
       </c>
       <c r="O16">
-        <v>0.4699046171727648</v>
+        <v>0.4357602501584878</v>
       </c>
       <c r="P16">
-        <v>0.4699046171727648</v>
+        <v>0.4357602501584877</v>
       </c>
       <c r="Q16">
-        <v>16.348683969576</v>
+        <v>85.75260755828521</v>
       </c>
       <c r="R16">
-        <v>147.138155726184</v>
+        <v>771.7734680245669</v>
       </c>
       <c r="S16">
-        <v>0.001082228458159251</v>
+        <v>0.003753457855126093</v>
       </c>
       <c r="T16">
-        <v>0.001082228458159251</v>
+        <v>0.003753457855126092</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.748144</v>
+        <v>5.136966666666667</v>
       </c>
       <c r="H17">
-        <v>11.244432</v>
+        <v>15.4109</v>
       </c>
       <c r="I17">
-        <v>0.03673748246803354</v>
+        <v>0.04942637974429093</v>
       </c>
       <c r="J17">
-        <v>0.03673748246803353</v>
+        <v>0.04942637974429093</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>12.07474266666667</v>
+        <v>14.13421233333333</v>
       </c>
       <c r="N17">
-        <v>36.224228</v>
+        <v>42.402637</v>
       </c>
       <c r="O17">
-        <v>0.08154942646895191</v>
+        <v>0.06429893302526193</v>
       </c>
       <c r="P17">
-        <v>0.08154942646895191</v>
+        <v>0.06429893302526192</v>
       </c>
       <c r="Q17">
-        <v>45.25787427761066</v>
+        <v>72.60697761592222</v>
       </c>
       <c r="R17">
-        <v>407.3208684984959</v>
+        <v>653.4627985433</v>
       </c>
       <c r="S17">
-        <v>0.002995920625181312</v>
+        <v>0.003178063480859326</v>
       </c>
       <c r="T17">
-        <v>0.00299592062518131</v>
+        <v>0.003178063480859325</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.748144</v>
+        <v>5.136966666666667</v>
       </c>
       <c r="H18">
-        <v>11.244432</v>
+        <v>15.4109</v>
       </c>
       <c r="I18">
-        <v>0.03673748246803354</v>
+        <v>0.04942637974429093</v>
       </c>
       <c r="J18">
-        <v>0.03673748246803353</v>
+        <v>0.04942637974429093</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,25 +1553,25 @@
         <v>16.614382</v>
       </c>
       <c r="N18">
-        <v>49.843146</v>
+        <v>49.84314599999999</v>
       </c>
       <c r="O18">
-        <v>0.1122088777077109</v>
+        <v>0.07558164617031606</v>
       </c>
       <c r="P18">
-        <v>0.1122088777077108</v>
+        <v>0.07558164617031604</v>
       </c>
       <c r="Q18">
-        <v>62.27309620700801</v>
+        <v>85.34752652126664</v>
       </c>
       <c r="R18">
-        <v>560.457865863072</v>
+        <v>768.1277386913998</v>
       </c>
       <c r="S18">
-        <v>0.004122271677544748</v>
+        <v>0.003735727145312674</v>
       </c>
       <c r="T18">
-        <v>0.004122271677544745</v>
+        <v>0.003735727145312673</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.748144</v>
+        <v>5.136966666666667</v>
       </c>
       <c r="H19">
-        <v>11.244432</v>
+        <v>15.4109</v>
       </c>
       <c r="I19">
-        <v>0.03673748246803354</v>
+        <v>0.04942637974429093</v>
       </c>
       <c r="J19">
-        <v>0.03673748246803353</v>
+        <v>0.04942637974429093</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>43.86740866666667</v>
+        <v>87.857732</v>
       </c>
       <c r="N19">
-        <v>131.602226</v>
+        <v>263.573196</v>
       </c>
       <c r="O19">
-        <v>0.2962681786437903</v>
+        <v>0.3996797481453391</v>
       </c>
       <c r="P19">
-        <v>0.2962681786437903</v>
+        <v>0.399679748145339</v>
       </c>
       <c r="Q19">
-        <v>164.4213645895147</v>
+        <v>451.3222406929333</v>
       </c>
       <c r="R19">
-        <v>1479.792281305632</v>
+        <v>4061.9001662364</v>
       </c>
       <c r="S19">
-        <v>0.01088414701876248</v>
+        <v>0.01975472300793409</v>
       </c>
       <c r="T19">
-        <v>0.01088414701876247</v>
+        <v>0.01975472300793409</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.748144</v>
+        <v>5.136966666666667</v>
       </c>
       <c r="H20">
-        <v>11.244432</v>
+        <v>15.4109</v>
       </c>
       <c r="I20">
-        <v>0.03673748246803354</v>
+        <v>0.04942637974429093</v>
       </c>
       <c r="J20">
-        <v>0.03673748246803353</v>
+        <v>0.04942637974429093</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>5.932863999999999</v>
+        <v>5.425038666666667</v>
       </c>
       <c r="N20">
-        <v>17.798592</v>
+        <v>16.275116</v>
       </c>
       <c r="O20">
-        <v>0.04006890000678209</v>
+        <v>0.02467942250059516</v>
       </c>
       <c r="P20">
-        <v>0.04006890000678209</v>
+        <v>0.02467942250059516</v>
       </c>
       <c r="Q20">
-        <v>22.237228604416</v>
+        <v>27.86824279604444</v>
       </c>
       <c r="R20">
-        <v>200.135057439744</v>
+        <v>250.8141851644</v>
       </c>
       <c r="S20">
-        <v>0.001472030511512546</v>
+        <v>0.001219814508384215</v>
       </c>
       <c r="T20">
-        <v>0.001472030511512545</v>
+        <v>0.001219814508384215</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.748144</v>
+        <v>5.136966666666667</v>
       </c>
       <c r="H21">
-        <v>11.244432</v>
+        <v>15.4109</v>
       </c>
       <c r="I21">
-        <v>0.03673748246803354</v>
+        <v>0.04942637974429093</v>
       </c>
       <c r="J21">
-        <v>0.03673748246803353</v>
+        <v>0.04942637974429093</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>69.577158</v>
+        <v>95.78895966666666</v>
       </c>
       <c r="N21">
-        <v>208.731474</v>
+        <v>287.366879</v>
       </c>
       <c r="O21">
-        <v>0.4699046171727648</v>
+        <v>0.4357602501584878</v>
       </c>
       <c r="P21">
-        <v>0.4699046171727648</v>
+        <v>0.4357602501584877</v>
       </c>
       <c r="Q21">
-        <v>260.785207294752</v>
+        <v>492.0646928423444</v>
       </c>
       <c r="R21">
-        <v>2347.066865652768</v>
+        <v>4428.5822355811</v>
       </c>
       <c r="S21">
-        <v>0.01726311263503246</v>
+        <v>0.02153805160180063</v>
       </c>
       <c r="T21">
-        <v>0.01726311263503245</v>
+        <v>0.02153805160180063</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.1421</v>
+        <v>0.5639586666666667</v>
       </c>
       <c r="H22">
-        <v>0.4263</v>
+        <v>1.691876</v>
       </c>
       <c r="I22">
-        <v>0.001392795009665468</v>
+        <v>0.005426244129561024</v>
       </c>
       <c r="J22">
-        <v>0.001392795009665468</v>
+        <v>0.005426244129561024</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>12.07474266666667</v>
+        <v>14.13421233333333</v>
       </c>
       <c r="N22">
-        <v>36.224228</v>
+        <v>42.402637</v>
       </c>
       <c r="O22">
-        <v>0.08154942646895191</v>
+        <v>0.06429893302526193</v>
       </c>
       <c r="P22">
-        <v>0.08154942646895191</v>
+        <v>0.06429893302526192</v>
       </c>
       <c r="Q22">
-        <v>1.715820932933333</v>
+        <v>7.971111541890222</v>
       </c>
       <c r="R22">
-        <v>15.4423883964</v>
+        <v>71.740003877012</v>
       </c>
       <c r="S22">
-        <v>0.0001135816342270373</v>
+        <v>0.000348901707865365</v>
       </c>
       <c r="T22">
-        <v>0.0001135816342270372</v>
+        <v>0.0003489017078653649</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.1421</v>
+        <v>0.5639586666666667</v>
       </c>
       <c r="H23">
-        <v>0.4263</v>
+        <v>1.691876</v>
       </c>
       <c r="I23">
-        <v>0.001392795009665468</v>
+        <v>0.005426244129561024</v>
       </c>
       <c r="J23">
-        <v>0.001392795009665468</v>
+        <v>0.005426244129561024</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,25 +1863,25 @@
         <v>16.614382</v>
       </c>
       <c r="N23">
-        <v>49.843146</v>
+        <v>49.84314599999999</v>
       </c>
       <c r="O23">
-        <v>0.1122088777077109</v>
+        <v>0.07558164617031606</v>
       </c>
       <c r="P23">
-        <v>0.1122088777077108</v>
+        <v>0.07558164617031604</v>
       </c>
       <c r="Q23">
-        <v>2.3609036822</v>
+        <v>9.369824720210666</v>
       </c>
       <c r="R23">
-        <v>21.2481331398</v>
+        <v>84.32842248189598</v>
       </c>
       <c r="S23">
-        <v>0.0001562839649114625</v>
+        <v>0.0004101244638342359</v>
       </c>
       <c r="T23">
-        <v>0.0001562839649114624</v>
+        <v>0.0004101244638342358</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.1421</v>
+        <v>0.5639586666666667</v>
       </c>
       <c r="H24">
-        <v>0.4263</v>
+        <v>1.691876</v>
       </c>
       <c r="I24">
-        <v>0.001392795009665468</v>
+        <v>0.005426244129561024</v>
       </c>
       <c r="J24">
-        <v>0.001392795009665468</v>
+        <v>0.005426244129561024</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>43.86740866666667</v>
+        <v>87.857732</v>
       </c>
       <c r="N24">
-        <v>131.602226</v>
+        <v>263.573196</v>
       </c>
       <c r="O24">
-        <v>0.2962681786437903</v>
+        <v>0.3996797481453391</v>
       </c>
       <c r="P24">
-        <v>0.2962681786437903</v>
+        <v>0.399679748145339</v>
       </c>
       <c r="Q24">
-        <v>6.233558771533334</v>
+        <v>49.54812939507734</v>
       </c>
       <c r="R24">
-        <v>56.1020289438</v>
+        <v>445.933164555696</v>
       </c>
       <c r="S24">
-        <v>0.0004126408407377487</v>
+        <v>0.002168759887078075</v>
       </c>
       <c r="T24">
-        <v>0.0004126408407377485</v>
+        <v>0.002168759887078074</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.1421</v>
+        <v>0.5639586666666667</v>
       </c>
       <c r="H25">
-        <v>0.4263</v>
+        <v>1.691876</v>
       </c>
       <c r="I25">
-        <v>0.001392795009665468</v>
+        <v>0.005426244129561024</v>
       </c>
       <c r="J25">
-        <v>0.001392795009665468</v>
+        <v>0.005426244129561024</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>5.932863999999999</v>
+        <v>5.425038666666667</v>
       </c>
       <c r="N25">
-        <v>17.798592</v>
+        <v>16.275116</v>
       </c>
       <c r="O25">
-        <v>0.04006890000678209</v>
+        <v>0.02467942250059516</v>
       </c>
       <c r="P25">
-        <v>0.04006890000678209</v>
+        <v>0.02467942250059516</v>
       </c>
       <c r="Q25">
-        <v>0.8430599743999999</v>
+        <v>3.059497573068445</v>
       </c>
       <c r="R25">
-        <v>7.5875397696</v>
+        <v>27.53547815761601</v>
       </c>
       <c r="S25">
-        <v>5.580776397223074E-05</v>
+        <v>0.0001339165714648107</v>
       </c>
       <c r="T25">
-        <v>5.580776397223072E-05</v>
+        <v>0.0001339165714648107</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.1421</v>
+        <v>0.5639586666666667</v>
       </c>
       <c r="H26">
-        <v>0.4263</v>
+        <v>1.691876</v>
       </c>
       <c r="I26">
-        <v>0.001392795009665468</v>
+        <v>0.005426244129561024</v>
       </c>
       <c r="J26">
-        <v>0.001392795009665468</v>
+        <v>0.005426244129561024</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>69.577158</v>
+        <v>95.78895966666666</v>
       </c>
       <c r="N26">
-        <v>208.731474</v>
+        <v>287.366879</v>
       </c>
       <c r="O26">
-        <v>0.4699046171727648</v>
+        <v>0.4357602501584878</v>
       </c>
       <c r="P26">
-        <v>0.4699046171727648</v>
+        <v>0.4357602501584877</v>
       </c>
       <c r="Q26">
-        <v>9.886914151799999</v>
+        <v>54.02101397500044</v>
       </c>
       <c r="R26">
-        <v>88.98222736619999</v>
+        <v>486.189125775004</v>
       </c>
       <c r="S26">
-        <v>0.0006544808058169892</v>
+        <v>0.002364541499318537</v>
       </c>
       <c r="T26">
-        <v>0.0006544808058169889</v>
+        <v>0.002364541499318537</v>
       </c>
     </row>
   </sheetData>
